--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Adam12</t>
+  </si>
+  <si>
+    <t>Sdc4</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam12</t>
-  </si>
-  <si>
-    <t>Sdc4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H2">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I2">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J2">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N2">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q2">
-        <v>16.530532355625</v>
+        <v>11.82225062035289</v>
       </c>
       <c r="R2">
-        <v>148.774791200625</v>
+        <v>106.400255583176</v>
       </c>
       <c r="S2">
-        <v>0.001923494986139666</v>
+        <v>0.001804882550863159</v>
       </c>
       <c r="T2">
-        <v>0.001923494986139667</v>
+        <v>0.00180488255086316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H3">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I3">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J3">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P3">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q3">
-        <v>78.73431894541399</v>
+        <v>96.02866578932486</v>
       </c>
       <c r="R3">
-        <v>708.608870508726</v>
+        <v>864.2579921039239</v>
       </c>
       <c r="S3">
-        <v>0.009161536027428151</v>
+        <v>0.01466053028578487</v>
       </c>
       <c r="T3">
-        <v>0.009161536027428153</v>
+        <v>0.01466053028578487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H4">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I4">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J4">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N4">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O4">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P4">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q4">
-        <v>237.825832066677</v>
+        <v>140.3335656907707</v>
       </c>
       <c r="R4">
-        <v>2140.432488600093</v>
+        <v>1263.002091216936</v>
       </c>
       <c r="S4">
-        <v>0.02767344606413021</v>
+        <v>0.02142448271056196</v>
       </c>
       <c r="T4">
-        <v>0.02767344606413021</v>
+        <v>0.02142448271056197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H5">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I5">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J5">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N5">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q5">
-        <v>124.477091573005</v>
+        <v>118.3356412111444</v>
       </c>
       <c r="R5">
-        <v>1120.293824157045</v>
+        <v>1065.0207709003</v>
       </c>
       <c r="S5">
-        <v>0.01448417125226156</v>
+        <v>0.01806609763453168</v>
       </c>
       <c r="T5">
-        <v>0.01448417125226157</v>
+        <v>0.01806609763453168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.925937</v>
+        <v>9.666904666666666</v>
       </c>
       <c r="H6">
-        <v>23.777811</v>
+        <v>29.000714</v>
       </c>
       <c r="I6">
-        <v>0.07297748600573917</v>
+        <v>0.08665276800447426</v>
       </c>
       <c r="J6">
-        <v>0.07297748600573918</v>
+        <v>0.08665276800447427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N6">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q6">
-        <v>169.601363706801</v>
+        <v>201.0684656557453</v>
       </c>
       <c r="R6">
-        <v>1526.412273361209</v>
+        <v>1809.616190901708</v>
       </c>
       <c r="S6">
-        <v>0.01973483767577959</v>
+        <v>0.03069677482273258</v>
       </c>
       <c r="T6">
-        <v>0.01973483767577959</v>
+        <v>0.03069677482273259</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,40 +856,40 @@
         <v>294.289253</v>
       </c>
       <c r="I7">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J7">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N7">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q7">
-        <v>204.5923410960417</v>
+        <v>119.9681257448502</v>
       </c>
       <c r="R7">
-        <v>1841.331069864375</v>
+        <v>1079.713131703652</v>
       </c>
       <c r="S7">
-        <v>0.02380639254893093</v>
+        <v>0.01831532622425274</v>
       </c>
       <c r="T7">
-        <v>0.02380639254893093</v>
+        <v>0.01831532622425275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>294.289253</v>
       </c>
       <c r="I8">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J8">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P8">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q8">
         <v>974.4658121771442</v>
@@ -948,10 +948,10 @@
         <v>8770.192309594298</v>
       </c>
       <c r="S8">
-        <v>0.1133889740247501</v>
+        <v>0.1487700098138103</v>
       </c>
       <c r="T8">
-        <v>0.1133889740247502</v>
+        <v>0.1487700098138104</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>294.289253</v>
       </c>
       <c r="I9">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J9">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N9">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O9">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P9">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q9">
-        <v>2943.483168530772</v>
+        <v>1424.056670396575</v>
       </c>
       <c r="R9">
-        <v>26491.34851677695</v>
+        <v>12816.51003356917</v>
       </c>
       <c r="S9">
-        <v>0.3425041005729531</v>
+        <v>0.217408268389623</v>
       </c>
       <c r="T9">
-        <v>0.3425041005729531</v>
+        <v>0.217408268389623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>294.289253</v>
       </c>
       <c r="I10">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J10">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N10">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q10">
-        <v>1540.607345841559</v>
+        <v>1200.829312523261</v>
       </c>
       <c r="R10">
-        <v>13865.46611257403</v>
+        <v>10807.46381270935</v>
       </c>
       <c r="S10">
-        <v>0.1792652796404232</v>
+        <v>0.1833285338247671</v>
       </c>
       <c r="T10">
-        <v>0.1792652796404232</v>
+        <v>0.1833285338247671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>294.289253</v>
       </c>
       <c r="I11">
-        <v>0.9032156005633545</v>
+        <v>0.8793224320759494</v>
       </c>
       <c r="J11">
-        <v>0.9032156005633546</v>
+        <v>0.8793224320759495</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N11">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q11">
-        <v>2099.093925553357</v>
+        <v>2040.373508034507</v>
       </c>
       <c r="R11">
-        <v>18891.84532998021</v>
+        <v>18363.36157231057</v>
       </c>
       <c r="S11">
-        <v>0.2442508537762973</v>
+        <v>0.3115002938234962</v>
       </c>
       <c r="T11">
-        <v>0.2442508537762972</v>
+        <v>0.3115002938234963</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H12">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I12">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J12">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N12">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q12">
-        <v>0.01117199791666666</v>
+        <v>0.07128967735022222</v>
       </c>
       <c r="R12">
-        <v>0.10054798125</v>
+        <v>0.6416070961520001</v>
       </c>
       <c r="S12">
-        <v>1.299975192302792E-06</v>
+        <v>1.088367171683592E-05</v>
       </c>
       <c r="T12">
-        <v>1.299975192302792E-06</v>
+        <v>1.088367171683593E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H13">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I13">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J13">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P13">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q13">
-        <v>0.05321181606888888</v>
+        <v>0.5790650883942221</v>
       </c>
       <c r="R13">
-        <v>0.4789063446199999</v>
+        <v>5.211585795548</v>
       </c>
       <c r="S13">
-        <v>6.191734132329101E-06</v>
+        <v>8.84048653187465E-05</v>
       </c>
       <c r="T13">
-        <v>6.191734132329102E-06</v>
+        <v>8.840486531874655E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H14">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I14">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J14">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N14">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O14">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P14">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q14">
-        <v>0.16073225249</v>
+        <v>0.8462292790746667</v>
       </c>
       <c r="R14">
-        <v>1.44659027241</v>
+        <v>7.616063511672</v>
       </c>
       <c r="S14">
-        <v>1.870282669210266E-05</v>
+        <v>0.0001291923601418108</v>
       </c>
       <c r="T14">
-        <v>1.870282669210266E-05</v>
+        <v>0.0001291923601418109</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H15">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I15">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J15">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N15">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q15">
-        <v>0.08412661962777776</v>
+        <v>0.7135789920111112</v>
       </c>
       <c r="R15">
-        <v>0.7571395766499999</v>
+        <v>6.4222109281</v>
       </c>
       <c r="S15">
-        <v>9.78898486592577E-06</v>
+        <v>0.0001089408702879395</v>
       </c>
       <c r="T15">
-        <v>9.78898486592577E-06</v>
+        <v>0.0001089408702879395</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.005356666666666666</v>
+        <v>0.05829266666666667</v>
       </c>
       <c r="H16">
-        <v>0.01607</v>
+        <v>0.174878</v>
       </c>
       <c r="I16">
-        <v>4.932111707474789E-05</v>
+        <v>0.0005225272302980695</v>
       </c>
       <c r="J16">
-        <v>4.93211170747479E-05</v>
+        <v>0.0005225272302980696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N16">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q16">
-        <v>0.1146234157033333</v>
+        <v>1.212468463257333</v>
       </c>
       <c r="R16">
-        <v>1.03161074133</v>
+        <v>10.912216169316</v>
       </c>
       <c r="S16">
-        <v>1.333759619208757E-05</v>
+        <v>0.0001851054628327367</v>
       </c>
       <c r="T16">
-        <v>1.333759619208757E-05</v>
+        <v>0.0001851054628327368</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H17">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I17">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J17">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N17">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q17">
-        <v>5.370428758333333</v>
+        <v>4.570797600644445</v>
       </c>
       <c r="R17">
-        <v>48.333858825</v>
+        <v>41.13717840580001</v>
       </c>
       <c r="S17">
-        <v>0.0006249038184520028</v>
+        <v>0.0006978157626541757</v>
       </c>
       <c r="T17">
-        <v>0.0006249038184520028</v>
+        <v>0.0006978157626541761</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H18">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I18">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J18">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>29.801266</v>
       </c>
       <c r="O18">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P18">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q18">
-        <v>25.57915508319111</v>
+        <v>37.12724499574444</v>
       </c>
       <c r="R18">
-        <v>230.21239574872</v>
+        <v>334.1452049617</v>
       </c>
       <c r="S18">
-        <v>0.002976393953547712</v>
+        <v>0.005668152266969997</v>
       </c>
       <c r="T18">
-        <v>0.002976393953547712</v>
+        <v>0.005668152266970001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H19">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I19">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J19">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N19">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O19">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P19">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q19">
-        <v>77.26470391444001</v>
+        <v>54.25670170153334</v>
       </c>
       <c r="R19">
-        <v>695.3823352299601</v>
+        <v>488.3103153138001</v>
       </c>
       <c r="S19">
-        <v>0.008990531423170986</v>
+        <v>0.008283276789945258</v>
       </c>
       <c r="T19">
-        <v>0.008990531423170986</v>
+        <v>0.008283276789945261</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H20">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I20">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J20">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N20">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q20">
-        <v>40.44003774082222</v>
+        <v>45.75171701972223</v>
       </c>
       <c r="R20">
-        <v>363.9603396674</v>
+        <v>411.7654531775</v>
       </c>
       <c r="S20">
-        <v>0.004705608274454718</v>
+        <v>0.006984835491371169</v>
       </c>
       <c r="T20">
-        <v>0.004705608274454719</v>
+        <v>0.006984835491371171</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.574973333333333</v>
+        <v>3.737483333333333</v>
       </c>
       <c r="H21">
-        <v>7.72492</v>
+        <v>11.21245</v>
       </c>
       <c r="I21">
-        <v>0.023708878886936</v>
+        <v>0.03350227268927818</v>
       </c>
       <c r="J21">
-        <v>0.02370887888693601</v>
+        <v>0.03350227268927819</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N21">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q21">
-        <v>55.09998235438667</v>
+        <v>77.73843491376667</v>
       </c>
       <c r="R21">
-        <v>495.89984118948</v>
+        <v>699.6459142239</v>
       </c>
       <c r="S21">
-        <v>0.006411441417310587</v>
+        <v>0.01186819237833758</v>
       </c>
       <c r="T21">
-        <v>0.006411441417310587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.015872</v>
-      </c>
-      <c r="I22">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J22">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.085625</v>
-      </c>
-      <c r="N22">
-        <v>6.256875</v>
-      </c>
-      <c r="O22">
-        <v>0.02635737528678909</v>
-      </c>
-      <c r="P22">
-        <v>0.02635737528678909</v>
-      </c>
-      <c r="Q22">
-        <v>0.01103434666666667</v>
-      </c>
-      <c r="R22">
-        <v>0.09930912</v>
-      </c>
-      <c r="S22">
-        <v>1.283958074189789E-06</v>
-      </c>
-      <c r="T22">
-        <v>1.28395807418979E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.015872</v>
-      </c>
-      <c r="I23">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J23">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>9.933755333333332</v>
-      </c>
-      <c r="N23">
-        <v>29.801266</v>
-      </c>
-      <c r="O23">
-        <v>0.1255392111850449</v>
-      </c>
-      <c r="P23">
-        <v>0.1255392111850449</v>
-      </c>
-      <c r="Q23">
-        <v>0.05255618821688889</v>
-      </c>
-      <c r="R23">
-        <v>0.473005693952</v>
-      </c>
-      <c r="S23">
-        <v>6.115445186579185E-06</v>
-      </c>
-      <c r="T23">
-        <v>6.115445186579187E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.015872</v>
-      </c>
-      <c r="I24">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J24">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>30.006021</v>
-      </c>
-      <c r="N24">
-        <v>90.01806300000001</v>
-      </c>
-      <c r="O24">
-        <v>0.3792052532743301</v>
-      </c>
-      <c r="P24">
-        <v>0.3792052532743301</v>
-      </c>
-      <c r="Q24">
-        <v>0.158751855104</v>
-      </c>
-      <c r="R24">
-        <v>1.428766695936</v>
-      </c>
-      <c r="S24">
-        <v>1.847238738376188E-05</v>
-      </c>
-      <c r="T24">
-        <v>1.847238738376189E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.015872</v>
-      </c>
-      <c r="I25">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J25">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>15.70503166666666</v>
-      </c>
-      <c r="N25">
-        <v>47.115095</v>
-      </c>
-      <c r="O25">
-        <v>0.1984745165258568</v>
-      </c>
-      <c r="P25">
-        <v>0.1984745165258568</v>
-      </c>
-      <c r="Q25">
-        <v>0.08309008753777777</v>
-      </c>
-      <c r="R25">
-        <v>0.74781078784</v>
-      </c>
-      <c r="S25">
-        <v>9.668373851398496E-06</v>
-      </c>
-      <c r="T25">
-        <v>9.668373851398499E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.005290666666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.015872</v>
-      </c>
-      <c r="I26">
-        <v>4.871342689548218E-05</v>
-      </c>
-      <c r="J26">
-        <v>4.871342689548219E-05</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>21.398273</v>
-      </c>
-      <c r="N26">
-        <v>64.194819</v>
-      </c>
-      <c r="O26">
-        <v>0.2704236437279791</v>
-      </c>
-      <c r="P26">
-        <v>0.2704236437279791</v>
-      </c>
-      <c r="Q26">
-        <v>0.1132111296853333</v>
-      </c>
-      <c r="R26">
-        <v>1.018900167168</v>
-      </c>
-      <c r="S26">
-        <v>1.317326239955283E-05</v>
-      </c>
-      <c r="T26">
-        <v>1.317326239955283E-05</v>
+        <v>0.01186819237833758</v>
       </c>
     </row>
   </sheetData>
